--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/FoodAllergy</t>
+    <t>http://example.com/fhir/example/ImplementationGuide/my-ig/StructureDefinition/FoodAllergy</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T18:50:22+00:00</t>
+    <t>2022-09-26T19:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>My Organization</t>
   </si>
   <si>
     <t>Contact</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -259,17 +259,20 @@
     <t>Allergy or Intolerance (generally: Risk of adverse reaction to a substance)</t>
   </si>
   <si>
-    <t>Risk of harmful or undesirable, physiological response which is unique to an individual and associated with exposure to a substance.</t>
+    <t>Risk of harmful or undesirable physiological response which is specific to an individual and associated with exposure to a substance.</t>
   </si>
   <si>
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
   </si>
   <si>
-    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
-ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>clinical.general</t>
   </si>
   <si>
     <t>AllergyIntolerance.id</t>
@@ -291,7 +294,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -355,7 +358,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,7 +384,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -404,10 +407,10 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -453,7 +456,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -472,7 +475,7 @@
     <t>Business identifiers assigned to this AllergyIntolerance by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://build.fhir.org/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the AllergyIntolerance as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -500,18 +503,15 @@
     <t>The clinical status of the allergy or intolerance.</t>
   </si>
   <si>
-    <t>Refer to [discussion](http://hl7.org/fhir/R4/extensibility.html#Special-Case) if clincalStatus is missing data.
+    <t>AllergyIntolerance.clinicalStatus should be present if verificationStatus is not entered-in-error and the AllergyIntolerance.code isn't negated (No Known Allergy, No Drug Allergy, No Food Allergy, No Latex Allergy).
+Refer to [discussion](http://build.fhir.org/extensibility.html#Special-Case) if clincalStatus is missing data.
 The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|4.0.1</t>
-  </si>
-  <si>
-    <t>ait-1
-ait-2</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|5.0.0-ballot</t>
   </si>
   <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
@@ -523,10 +523,10 @@
     <t>AllergyIntolerance.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | confirmed | refuted | entered-in-error</t>
-  </si>
-  <si>
-    <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).</t>
+    <t>unconfirmed | presumed | confirmed | refuted | entered-in-error</t>
+  </si>
+  <si>
+    <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).  The verification status pertains to the allergy or intolerance, itself, not to any specific AllergyIntolerance attribute.</t>
   </si>
   <si>
     <t>The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
@@ -535,7 +535,7 @@
     <t>Assertion about certainty associated with a propensity, or potential risk, of a reaction to the identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|5.0.0-ballot</t>
   </si>
   <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
@@ -560,7 +560,7 @@
     <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|5.0.0-ballot</t>
   </si>
   <si>
     <t>code</t>
@@ -585,13 +585,13 @@
     <t>Category of the identified substance.</t>
   </si>
   <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/R4/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://build.fhir.org/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance associated with allergies or intolerances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|5.0.0-ballot</t>
   </si>
   <si>
     <t>value &lt; IntoleranceValue (Agent)</t>
@@ -619,7 +619,7 @@
     <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|5.0.0-ballot</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=SEV, value &lt;= SeverityObservation (Severity Level)]</t>
@@ -654,7 +654,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/FoodAllergyVS</t>
+    <t>http://example.com/fhir/example/ImplementationGuide/my-ig/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>substance/product:@@ -734,6 +734,9 @@
     <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
   </si>
   <si>
+    <t>Age is generally used when the patient reports an age at which the AllergyIntolerance was noted. Period is generally used to convey an imprecise onset that occurred within the time period.  Range is generally used to convey an imprecise age range (e.g. 4 to 6 years old).</t>
+  </si>
+  <si>
     <t>effectiveTime.low</t>
   </si>
   <si>
@@ -747,12 +750,15 @@
 </t>
   </si>
   <si>
-    <t>Date first version of the resource instance was recorded</t>
+    <t>Date allergy or intolerance was first recorded</t>
   </si>
   <si>
     <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
   </si>
   <si>
+    <t>When onset date is unknown, recordedDate can be used to establish if the allergy or intolerance was present on or before a given date.  If the recordedDate is known and provided by a sending system, it is preferred that the receiving system preserve that recordedDate value. If the recordedDate is not provided by the sending system, the receipt timestamp is sometimes used as the recordedDate.</t>
+  </si>
+  <si>
     <t>.participation[typeCode=AUT].time</t>
   </si>
   <si>
@@ -762,56 +768,99 @@
     <t>IAM-13</t>
   </si>
   <si>
-    <t>AllergyIntolerance.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
+    <t>AllergyIntolerance.participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t>Who or what participated in the activities related to the allergy or intolerance and how they were involved</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in the activities related to the allergy or intolerance and how they were involved.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.participant.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Who recorded the sensitivity</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.asserter</t>
-  </si>
-  <si>
-    <t>Source
-Informant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.participant.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.participant.function</t>
+  </si>
+  <si>
+    <t>Type of involvement</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the actor in the activities related to the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.participant.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device|Organization|CareTeam)
 </t>
   </si>
   <si>
-    <t>Source of the information about the allergy</t>
-  </si>
-  <si>
-    <t>The source of the information about the allergy that is recorded.</t>
-  </si>
-  <si>
-    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
+    <t>Who or what participated in the activities related to the allergy or intolerance</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in the activities related to the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.who</t>
   </si>
   <si>
     <t>AllergyIntolerance.lastOccurrence</t>
@@ -823,7 +872,7 @@
     <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
   </si>
   <si>
-    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
+    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the AllergyIntolerance.note element should be used.</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
@@ -851,10 +900,6 @@
     <t>AllergyIntolerance.reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
     <t>Adverse Reaction Events linked to exposure to substance</t>
   </si>
   <si>
@@ -865,22 +910,6 @@
   </si>
   <si>
     <t>AllergyIntolerance.reaction.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.extension</t>
@@ -899,9 +928,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>certainty</t>
   </si>
   <si>
@@ -918,28 +944,10 @@
     <t>When certainty is missing, it means no information exists (although it could be in narrative).  By contrast, the unknown code is used when there is an explicit assertion that certainty is not known, such as when a patient eats a meal and it is unknown which food caused the reaction.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>uncertaintyCode</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.substance</t>
@@ -973,6 +981,10 @@
 Signs</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableReference(Observation)
+</t>
+  </si>
+  <si>
     <t>Clinical symptoms/signs associated with the Event</t>
   </si>
   <si>
@@ -1004,7 +1016,7 @@
     <t>Text description about the reaction as a whole, including details of the manifestation if required.</t>
   </si>
   <si>
-    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
+    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the note field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
   </si>
   <si>
     <t>text</t>
@@ -1037,7 +1049,7 @@
     <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|5.0.0-ballot</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.exposureRoute</t>
@@ -1052,7 +1064,7 @@
     <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of exposure to a substance.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1219,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1309,77 +1321,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1390,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1399,7 +1419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1409,7 +1429,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1422,8 +1442,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.046875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="114.75390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1436,7 +1456,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1657,7 +1677,7 @@
         <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -1665,7 +1685,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1676,7 +1696,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>78</v>
@@ -1685,19 +1705,19 @@
         <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1747,13 +1767,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -1773,7 +1793,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1784,7 +1804,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -1793,16 +1813,16 @@
         <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1853,19 +1873,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -1879,7 +1899,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1890,28 +1910,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1961,19 +1981,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -1987,7 +2007,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1998,7 +2018,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2010,16 +2030,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2045,13 +2065,13 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>78</v>
@@ -2069,19 +2089,19 @@
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2095,18 +2115,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2118,16 +2138,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2177,22 +2197,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2203,11 +2223,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2226,16 +2246,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2285,7 +2305,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2300,7 +2320,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2311,11 +2331,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2334,16 +2354,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2393,7 +2413,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2405,10 +2425,10 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2419,11 +2439,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2436,25 +2456,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -2503,7 +2523,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2515,10 +2535,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2529,7 +2549,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2549,22 +2569,22 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -2613,7 +2633,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2625,21 +2645,21 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2647,31 +2667,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2697,13 +2717,13 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
@@ -2721,19 +2741,19 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>159</v>
@@ -2755,22 +2775,22 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>162</v>
@@ -2805,7 +2825,7 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>165</v>
@@ -2835,13 +2855,13 @@
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>167</v>
@@ -2866,7 +2886,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2875,10 +2895,10 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>170</v>
@@ -2913,7 +2933,7 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>173</v>
@@ -2943,13 +2963,13 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>175</v>
@@ -2983,10 +3003,10 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>180</v>
@@ -3021,7 +3041,7 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>183</v>
@@ -3057,7 +3077,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>185</v>
@@ -3082,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3091,10 +3111,10 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>189</v>
@@ -3129,7 +3149,7 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>192</v>
@@ -3159,13 +3179,13 @@
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>194</v>
@@ -3187,22 +3207,22 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>199</v>
@@ -3265,13 +3285,13 @@
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>204</v>
@@ -3293,19 +3313,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>209</v>
@@ -3368,16 +3388,16 @@
         <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>212</v>
@@ -3402,7 +3422,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3477,13 +3497,13 @@
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>219</v>
@@ -3508,7 +3528,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3528,7 +3548,9 @@
       <c r="L20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -3583,19 +3605,19 @@
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -3603,7 +3625,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3614,10 +3636,10 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3626,15 +3648,17 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -3683,44 +3707,44 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3729,16 +3753,16 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3789,25 +3813,25 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -3835,20 +3859,18 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3897,44 +3919,44 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -3946,16 +3968,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4005,22 +4027,22 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4031,11 +4053,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4048,24 +4070,26 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4113,7 +4137,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4125,10 +4149,10 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4137,9 +4161,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4150,25 +4174,25 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4195,13 +4219,11 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -4219,22 +4241,22 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4245,7 +4267,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4253,10 +4275,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4265,16 +4287,16 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4325,25 +4347,25 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4351,7 +4373,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4362,7 +4384,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4374,15 +4396,17 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -4419,32 +4443,34 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4453,13 +4479,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4468,10 +4492,10 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4480,16 +4504,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4539,7 +4563,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4548,13 +4572,13 @@
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4563,13 +4587,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4579,29 +4603,25 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4649,7 +4669,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4661,10 +4681,10 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4675,7 +4695,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4686,7 +4706,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -4698,17 +4718,15 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -4733,13 +4751,13 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -4757,22 +4775,22 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -4781,23 +4799,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4806,17 +4824,15 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -4841,34 +4857,32 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4877,35 +4891,37 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C33" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -4914,16 +4930,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4973,22 +4989,22 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -4999,39 +5015,43 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5079,33 +5099,33 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5116,7 +5136,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -5128,16 +5148,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5163,13 +5183,13 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -5187,22 +5207,22 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5213,21 +5233,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5236,16 +5256,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5271,13 +5291,13 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5295,47 +5315,47 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5344,16 +5364,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5403,32 +5423,462 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
+      <c r="M40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL37">
+  <autoFilter ref="A1:AL41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5438,7 +5888,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ImplementationGuide/my-ig/StructureDefinition/FoodAllergy</t>
+    <t>http://example.com/fhir/example/StructureDefinition/FoodAllergy</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:08:49+00:00</t>
+    <t>2022-09-26T19:15:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,7 +654,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ImplementationGuide/my-ig/ValueSet/FoodAllergyVS</t>
+    <t>http://example.com/fhir/example/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>substance/product:@@ -1443,7 +1443,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="114.75390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.85546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:15:54+00:00</t>
+    <t>2022-09-26T19:21:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:21:34+00:00</t>
+    <t>2022-09-26T19:28:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:28:54+00:00</t>
+    <t>2022-09-26T19:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:40:28+00:00</t>
+    <t>2022-09-26T20:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T20:12:38+00:00</t>
+    <t>2022-10-03T18:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-03T18:17:50+00:00</t>
+    <t>2022-10-08T07:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -1671,13 +1667,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -1685,7 +1681,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1696,28 +1692,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1767,13 +1763,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -1793,7 +1789,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1804,25 +1800,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1873,19 +1869,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -1899,7 +1895,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1910,28 +1906,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1981,19 +1977,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2007,7 +2003,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2018,7 +2014,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2030,16 +2026,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2065,43 +2061,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2115,18 +2111,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2138,16 +2134,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2197,22 +2193,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2223,11 +2219,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2246,16 +2242,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2305,7 +2301,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2320,7 +2316,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2331,11 +2327,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2354,16 +2350,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2413,7 +2409,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2425,10 +2421,10 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2439,11 +2435,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2456,25 +2452,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -2523,7 +2519,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2535,10 +2531,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2549,7 +2545,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2569,22 +2565,22 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -2633,7 +2629,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2645,21 +2641,21 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2667,31 +2663,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2717,49 +2713,49 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
@@ -2767,7 +2763,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2775,31 +2771,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2825,49 +2821,49 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
@@ -2875,39 +2871,39 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2933,61 +2929,61 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3003,19 +2999,19 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3041,14 +3037,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3065,7 +3061,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3077,53 +3073,53 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3149,89 +3145,89 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3257,84 +3253,84 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3385,33 +3381,33 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3422,7 +3418,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3434,13 +3430,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3491,25 +3487,25 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -3517,7 +3513,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3528,7 +3524,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3540,16 +3536,16 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3599,25 +3595,25 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -3625,7 +3621,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3636,11 +3632,11 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3648,16 +3644,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3707,33 +3703,33 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3753,16 +3749,16 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3813,7 +3809,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3825,10 +3821,10 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -3839,7 +3835,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3850,7 +3846,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -3862,13 +3858,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3919,22 +3915,22 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3945,11 +3941,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3968,16 +3964,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4027,7 +4023,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4039,10 +4035,10 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4053,11 +4049,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4070,25 +4066,25 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4137,7 +4133,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4149,10 +4145,10 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4163,7 +4159,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4174,25 +4170,25 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4219,44 +4215,44 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4267,7 +4263,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4275,28 +4271,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4347,25 +4343,25 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4373,7 +4369,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4384,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4396,16 +4392,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4455,22 +4451,22 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4481,7 +4477,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4504,16 +4500,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4563,7 +4559,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4575,10 +4571,10 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4589,7 +4585,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4603,7 +4599,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4612,13 +4608,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4669,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4681,10 +4677,10 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4695,7 +4691,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4706,7 +4702,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -4718,13 +4714,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4775,22 +4771,22 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -4801,7 +4797,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4824,13 +4820,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4869,17 +4865,17 @@
         <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4891,7 +4887,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -4905,10 +4901,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>78</v>
@@ -4918,11 +4914,11 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
@@ -4930,16 +4926,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4989,7 +4985,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5001,10 +4997,10 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5015,11 +5011,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5032,25 +5028,25 @@
         <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5099,7 +5095,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5111,10 +5107,10 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5125,7 +5121,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5136,7 +5132,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -5148,16 +5144,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5183,46 +5179,46 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5233,21 +5229,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5256,16 +5252,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5291,14 +5287,14 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5315,10 +5311,10 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5327,32 +5323,32 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -5364,16 +5360,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5423,22 +5419,22 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5449,7 +5445,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5460,7 +5456,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -5472,13 +5468,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5529,33 +5525,33 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5566,7 +5562,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -5578,16 +5574,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5613,14 +5609,14 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5637,22 +5633,22 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5663,7 +5659,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5674,11 +5670,11 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
@@ -5686,16 +5682,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5721,46 +5717,46 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -5771,7 +5767,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5785,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -5794,16 +5790,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5853,7 +5849,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5865,10 +5861,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T07:01:50+00:00</t>
+    <t>2022-10-08T07:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T07:07:54+00:00</t>
+    <t>2022-10-08T07:26:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T07:26:49+00:00</t>
+    <t>2022-10-20T18:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T18:43:56+00:00</t>
+    <t>2022-10-21T07:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:32:02+00:00</t>
+    <t>2022-10-21T07:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:33:00+00:00</t>
+    <t>2022-10-21T07:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:34:01+00:00</t>
+    <t>2022-10-23T04:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T04:55:23+00:00</t>
+    <t>2022-10-23T05:54:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T05:54:39+00:00</t>
+    <t>2022-10-23T08:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:15:29+00:00</t>
+    <t>2022-10-23T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:15:59+00:00</t>
+    <t>2022-10-25T12:41:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:41:55+00:00</t>
+    <t>2022-10-25T12:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:42:28+00:00</t>
+    <t>2022-10-25T13:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:44:56+00:00</t>
+    <t>2022-10-25T20:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T20:14:11+00:00</t>
+    <t>2022-10-25T20:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T20:19:05+00:00</t>
+    <t>2022-10-25T21:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T21:54:13+00:00</t>
+    <t>2022-10-26T19:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T19:07:24+00:00</t>
+    <t>2022-10-26T19:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T19:16:08+00:00</t>
+    <t>2022-11-10T23:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T23:21:17+00:00</t>
+    <t>2022-11-11T07:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/FoodAllergy</t>
+    <t>http://medigree.github.io/r5demo/StructureDefinition/FoodAllergy</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T07:39:45+00:00</t>
+    <t>2022-11-11T07:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/FoodAllergyVS</t>
+    <t>http://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>substance/product:
--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T07:48:06+00:00</t>
+    <t>2022-11-11T07:58:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.github.io/r5demo/StructureDefinition/FoodAllergy</t>
+    <t>https://medigree.github.io/r5demo/StructureDefinition/FoodAllergy</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T07:58:05+00:00</t>
+    <t>2022-11-11T08:12:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
+    <t>https://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>substance/product:
--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:12:46+00:00</t>
+    <t>2022-11-11T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:43:20+00:00</t>
+    <t>2022-11-12T10:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:30:05+00:00</t>
+    <t>2022-11-12T10:31:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T23:08:40+00:00</t>
+    <t>2023-01-23T19:01:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T19:01:42+00:00</t>
+    <t>2023-01-23T19:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://medigree.github.io/r5demo/StructureDefinition/FoodAllergy</t>
+    <t>http://medigree.net/fhir/r5demo/StructureDefinition/FoodAllergy</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T19:20:09+00:00</t>
+    <t>2023-01-23T19:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,7 +657,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
+    <t>http://medigree.net/fhir/r5demo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>substance/product:
--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T19:27:14+00:00</t>
+    <t>2023-01-26T10:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T10:16:55+00:00</t>
+    <t>2023-01-26T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="343">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T10:17:51+00:00</t>
+    <t>2023-04-23T16:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -237,13 +237,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
+    <t>Mapping: HL7 V2 Mapping</t>
   </si>
   <si>
     <t>Allergy
@@ -272,10 +272,10 @@
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
   </si>
   <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
     <t>clinical.general</t>
+  </si>
+  <si>
+    <t>Entity, Role, or Act,Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>AllergyIntolerance.id</t>
@@ -336,7 +336,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -358,13 +358,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -393,6 +393,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -419,6 +423,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -436,7 +444,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -455,11 +463,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -478,16 +486,16 @@
     <t>Business identifiers assigned to this AllergyIntolerance by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/5.0.0-ballot/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R5/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the AllergyIntolerance as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>IAM-7</t>
@@ -507,22 +515,19 @@
   </si>
   <si>
     <t>AllergyIntolerance.clinicalStatus should be present if verificationStatus is not entered-in-error and the AllergyIntolerance.code isn't negated (No Known Allergy, No Drug Allergy, No Food Allergy, No Latex Allergy).
-Refer to [discussion](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#Special-Case) if clincalStatus is missing data.
+Refer to [discussion](http://hl7.org/fhir/R5/extensibility.html#Special-Case) if clinicalStatus is missing data.
 The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|5.0.0</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
   </si>
   <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.verificationStatus</t>
   </si>
   <si>
@@ -538,7 +543,7 @@
     <t>Assertion about certainty associated with a propensity, or potential risk, of a reaction to the identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|5.0.0</t>
   </si>
   <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
@@ -560,16 +565,19 @@
     <t>Allergic (typically immune-mediated) reactions have been traditionally regarded as an indicator for potential escalation to significant future risk. Contemporary knowledge suggests that some reactions previously thought to be immune-mediated are, in fact, non-immune, but in some cases can still pose a life threatening risk. It is acknowledged that many clinicians might not be in a position to distinguish the mechanism of a particular reaction. Often the term "allergy" is used rather generically and may overlap with the use of "intolerance" - in practice the boundaries between these two concepts might not be well-defined or understood. This data element is included nevertheless, because many legacy systems have captured this attribute. Immunologic testing may provide supporting evidence for the basis of the reaction and the causative substance, but no tests are 100% sensitive or specific for sensitivity to a particular substance. If, as is commonly the case, it is unclear whether the reaction is due to an allergy or an intolerance, then the type element should be omitted from the resource.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>IAM-9</t>
@@ -588,13 +596,13 @@
     <t>Category of the identified substance.</t>
   </si>
   <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/5.0.0-ballot/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/R5/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance associated with allergies or intolerances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|5.0.0</t>
   </si>
   <si>
     <t>value &lt; IntoleranceValue (Agent)</t>
@@ -622,13 +630,13 @@
     <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|5.0.0</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=SEV, value &lt;= SeverityObservation (Severity Level)]</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
   </si>
   <si>
     <t>AL1-4</t>
@@ -658,6 +666,9 @@
   </si>
   <si>
     <t>http://medigree.net/fhir/r5demo/ValueSet/FoodAllergyVS</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
   </si>
   <si>
     <t>substance/product:@@ -673,9 +684,6 @@
 Observation.code=ASSERTION; Observation.value</t>
   </si>
   <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
     <t>AL1-3 / IAM-3</t>
   </si>
   <si>
@@ -690,16 +698,16 @@
 </t>
   </si>
   <si>
-    <t>Who the sensitivity is for</t>
+    <t>Who the allergy or intolerance is for</t>
   </si>
   <si>
     <t>The patient who has the allergy or intolerance.</t>
   </si>
   <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>(PID-3)</t>
@@ -718,10 +726,10 @@
     <t>The encounter when the allergy or intolerance was asserted.</t>
   </si>
   <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
   </si>
   <si>
     <t>AllergyIntolerance.onset[x]</t>
@@ -740,10 +748,10 @@
     <t>Age is generally used when the patient reports an age at which the AllergyIntolerance was noted. Period is generally used to convey an imprecise onset that occurred within the time period.  Range is generally used to convey an imprecise age range (e.g. 4 to 6 years old).</t>
   </si>
   <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
     <t>effectiveTime.low</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
   </si>
   <si>
     <t>AllergyIntolerance.recordedDate</t>
@@ -762,10 +770,10 @@
     <t>When onset date is unknown, recordedDate can be used to establish if the allergy or intolerance was present on or before a given date.  If the recordedDate is known and provided by a sending system, it is preferred that the receiving system preserve that recordedDate value. If the recordedDate is not provided by the sending system, the receipt timestamp is sometimes used as the recordedDate.</t>
   </si>
   <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
     <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
   </si>
   <si>
     <t>IAM-13</t>
@@ -803,13 +811,17 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>AllergyIntolerance.participant.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -825,7 +837,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -860,10 +872,10 @@
     <t>Indicates who or what participated in the activities related to the allergy or intolerance.</t>
   </si>
   <si>
+    <t>FiveWs.who</t>
+  </si>
+  <si>
     <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.who</t>
   </si>
   <si>
     <t>AllergyIntolerance.lastOccurrence</t>
@@ -1055,7 +1067,7 @@
     <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|5.0.0</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.exposureRoute</t>
@@ -1450,7 +1462,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="114.75390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1460,9 +1472,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.37109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2233,16 +2245,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -2250,14 +2262,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2276,16 +2288,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2335,7 +2347,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2344,16 +2356,16 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -2361,14 +2373,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2387,16 +2399,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2446,7 +2458,7 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2458,13 +2470,13 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -2472,14 +2484,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2498,19 +2510,19 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -2559,7 +2571,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2571,13 +2583,13 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -2585,10 +2597,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2611,19 +2623,19 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2672,7 +2684,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2687,21 +2699,21 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2724,16 +2736,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2759,13 +2771,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2783,7 +2795,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2798,10 +2810,10 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -2809,10 +2821,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2835,16 +2847,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2870,13 +2882,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -2894,7 +2906,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2909,10 +2921,10 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -2920,14 +2932,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2946,16 +2958,16 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2981,13 +2993,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3005,7 +3017,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3020,25 +3032,25 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3060,13 +3072,13 @@
         <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3092,13 +3104,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3116,7 +3128,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3131,25 +3143,25 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3171,13 +3183,13 @@
         <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3203,13 +3215,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3227,7 +3239,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3242,25 +3254,25 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3279,16 +3291,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3314,11 +3326,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3336,7 +3348,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3351,25 +3363,25 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3388,13 +3400,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3445,7 +3457,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3460,21 +3472,21 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3497,13 +3509,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3554,7 +3566,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3569,10 +3581,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -3580,10 +3592,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3606,16 +3618,16 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3665,7 +3677,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3680,10 +3692,10 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -3691,10 +3703,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3717,16 +3729,16 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3776,7 +3788,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3791,21 +3803,21 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3828,13 +3840,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3885,7 +3897,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3900,10 +3912,10 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3911,10 +3923,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3937,13 +3949,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3994,7 +4006,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4003,16 +4015,16 @@
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4020,14 +4032,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4046,16 +4058,16 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4105,7 +4117,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4117,13 +4129,13 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4131,14 +4143,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4157,19 +4169,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4218,7 +4230,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4230,13 +4242,13 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4244,10 +4256,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4270,13 +4282,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4303,29 +4315,29 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4340,10 +4352,10 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4351,10 +4363,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4377,13 +4389,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4434,7 +4446,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
@@ -4449,10 +4461,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4460,10 +4472,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4486,16 +4498,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4545,7 +4557,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4560,10 +4572,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4571,10 +4583,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4597,16 +4609,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4656,7 +4668,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4671,10 +4683,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4682,10 +4694,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4708,13 +4720,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4765,7 +4777,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4780,10 +4792,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4791,10 +4803,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4817,13 +4829,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4874,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4883,16 +4895,16 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4900,10 +4912,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4926,13 +4938,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4971,17 +4983,17 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4993,7 +5005,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5007,13 +5019,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>79</v>
@@ -5035,16 +5047,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5094,7 +5106,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5106,13 +5118,13 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5120,14 +5132,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5146,19 +5158,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5207,7 +5219,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5219,13 +5231,13 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5233,10 +5245,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5259,16 +5271,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5294,13 +5306,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5318,7 +5330,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5333,10 +5345,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5344,14 +5356,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5370,16 +5382,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5405,13 +5417,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5429,7 +5441,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -5444,25 +5456,25 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5481,16 +5493,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5540,7 +5552,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5555,10 +5567,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -5566,10 +5578,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5592,13 +5604,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5649,7 +5661,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5664,21 +5676,21 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5704,13 +5716,13 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5736,13 +5748,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -5760,7 +5772,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5775,10 +5787,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -5786,10 +5798,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5812,16 +5824,16 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5847,13 +5859,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -5871,7 +5883,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5886,10 +5898,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -5897,10 +5909,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5923,16 +5935,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5982,7 +5994,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5997,10 +6009,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:18:55+00:00</t>
+    <t>2023-04-23T16:42:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:42:50+00:00</t>
+    <t>2023-04-23T16:45:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:45:24+00:00</t>
+    <t>2023-04-23T16:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:46:24+00:00</t>
+    <t>2023-04-23T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:52:42+00:00</t>
+    <t>2023-04-23T16:58:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:58:10+00:00</t>
+    <t>2023-04-23T16:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FoodAllergy.xlsx
+++ b/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:59:10+00:00</t>
+    <t>2023-04-23T16:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
